--- a/distance_quest_data.xlsx
+++ b/distance_quest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\wzqdist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DEA538-EE57-4BEA-BB73-40142D23DFA7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF106AD6-102D-49D6-B449-2D17C1BC0975}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="distance_quest_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="241">
   <si>
     <t>tdist</t>
   </si>
@@ -37,6 +37,9 @@
     <t>tlvl</t>
   </si>
   <si>
+    <t>qnum</t>
+  </si>
+  <si>
     <t>axp</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>xp/lvl</t>
   </si>
   <si>
-    <t>qnum</t>
+    <t>xp/lvl/adist</t>
   </si>
   <si>
     <t>qdata</t>
@@ -1284,9 +1287,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L130" totalsRowShown="0">
-  <autoFilter ref="A1:L130"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M130" totalsRowShown="0">
+  <autoFilter ref="A1:M130"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="tdist"/>
@@ -1294,11 +1297,12 @@
     <tableColumn id="5" name="adist"/>
     <tableColumn id="6" name="txp"/>
     <tableColumn id="7" name="tlvl"/>
-    <tableColumn id="8" name="axp"/>
-    <tableColumn id="9" name="alvl"/>
-    <tableColumn id="10" name="xp/lvl"/>
-    <tableColumn id="11" name="qnum"/>
-    <tableColumn id="12" name="qdata"/>
+    <tableColumn id="8" name="qnum"/>
+    <tableColumn id="9" name="axp"/>
+    <tableColumn id="10" name="alvl"/>
+    <tableColumn id="11" name="xp/lvl"/>
+    <tableColumn id="12" name="xp/lvl/adist"/>
+    <tableColumn id="13" name="qdata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1601,24 +1605,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1650,13 +1654,16 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>448</v>
@@ -1674,27 +1681,30 @@
         <v>59</v>
       </c>
       <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
         <v>239</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1515</v>
       </c>
-      <c r="K2">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>65.869565217391298</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>716</v>
@@ -1712,27 +1722,30 @@
         <v>1620</v>
       </c>
       <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
         <v>11970</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>60</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5386</v>
       </c>
-      <c r="K3">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>207.15384615384599</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1373</v>
@@ -1750,27 +1763,30 @@
         <v>4620</v>
       </c>
       <c r="H4">
+        <v>77</v>
+      </c>
+      <c r="I4">
         <v>8389</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>60</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10766</v>
       </c>
-      <c r="K4">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>633.29411764705799</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>774</v>
@@ -1788,27 +1804,30 @@
         <v>1020</v>
       </c>
       <c r="H5">
+        <v>47</v>
+      </c>
+      <c r="I5">
         <v>2728</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6106</v>
       </c>
-      <c r="K5">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>381.625</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>696</v>
@@ -1826,27 +1845,30 @@
         <v>2460</v>
       </c>
       <c r="H6">
+        <v>41</v>
+      </c>
+      <c r="I6">
         <v>7733</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>60</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5284</v>
       </c>
-      <c r="K6">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>330.25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1931</v>
@@ -1864,27 +1886,30 @@
         <v>7280</v>
       </c>
       <c r="H7">
+        <v>91</v>
+      </c>
+      <c r="I7">
         <v>10697</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>80</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>12168</v>
       </c>
-      <c r="K7">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>579.42857142857099</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>943</v>
@@ -1902,27 +1927,30 @@
         <v>2580</v>
       </c>
       <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="I8">
         <v>8550</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>60</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6127</v>
       </c>
-      <c r="K8">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>291.76190476190402</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1613</v>
@@ -1940,27 +1968,30 @@
         <v>4020</v>
       </c>
       <c r="H9">
+        <v>67</v>
+      </c>
+      <c r="I9">
         <v>8195</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>60</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9151</v>
       </c>
-      <c r="K9">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>381.291666666666</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1880</v>
@@ -1978,27 +2009,30 @@
         <v>11440</v>
       </c>
       <c r="H10">
+        <v>143</v>
+      </c>
+      <c r="I10">
         <v>9918</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>80</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>17730</v>
       </c>
-      <c r="K10">
-        <v>143</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1363.8461538461499</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1049</v>
@@ -2016,27 +2050,30 @@
         <v>2880</v>
       </c>
       <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
         <v>8308</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>60</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6647</v>
       </c>
-      <c r="K11">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>302.136363636363</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>1242</v>
@@ -2054,27 +2091,30 @@
         <v>3840</v>
       </c>
       <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
         <v>7641</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>60</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8151</v>
       </c>
-      <c r="K12">
-        <v>64</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>452.83333333333297</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>736</v>
@@ -2092,27 +2132,30 @@
         <v>5700</v>
       </c>
       <c r="H13">
+        <v>95</v>
+      </c>
+      <c r="I13">
         <v>8117</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>60</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12852</v>
       </c>
-      <c r="K13">
-        <v>95</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1836</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>1544</v>
@@ -2130,27 +2173,30 @@
         <v>3780</v>
       </c>
       <c r="H14">
+        <v>63</v>
+      </c>
+      <c r="I14">
         <v>8055</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>60</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8458</v>
       </c>
-      <c r="K14">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>352.416666666666</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>1901</v>
@@ -2168,27 +2214,30 @@
         <v>9920</v>
       </c>
       <c r="H15">
+        <v>124</v>
+      </c>
+      <c r="I15">
         <v>10210</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>80</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>15825</v>
       </c>
-      <c r="K15">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1055</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>462</v>
@@ -2206,27 +2255,30 @@
         <v>745</v>
       </c>
       <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
         <v>3215</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>19</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6431</v>
       </c>
-      <c r="K16">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>584.63636363636294</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>1240</v>
@@ -2244,27 +2296,30 @@
         <v>3240</v>
       </c>
       <c r="H17">
+        <v>54</v>
+      </c>
+      <c r="I17">
         <v>7595</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>60</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6835</v>
       </c>
-      <c r="K17">
-        <v>54</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>325.47619047619003</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>1066</v>
@@ -2282,27 +2337,30 @@
         <v>4380</v>
       </c>
       <c r="H18">
+        <v>73</v>
+      </c>
+      <c r="I18">
         <v>8033</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>60</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>9773</v>
       </c>
-      <c r="K18">
-        <v>73</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>698.07142857142799</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>765</v>
@@ -2320,27 +2378,30 @@
         <v>53</v>
       </c>
       <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
         <v>177</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1008</v>
       </c>
-      <c r="K19">
-        <v>17</v>
-      </c>
-      <c r="L19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>22.4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>659</v>
@@ -2358,27 +2419,30 @@
         <v>725</v>
       </c>
       <c r="H20">
+        <v>37</v>
+      </c>
+      <c r="I20">
         <v>2483</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4836</v>
       </c>
-      <c r="K20">
-        <v>37</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>284.47058823529397</v>
+      </c>
+      <c r="M20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>588</v>
@@ -2396,27 +2460,30 @@
         <v>4020</v>
       </c>
       <c r="H21">
+        <v>67</v>
+      </c>
+      <c r="I21">
         <v>9069</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>60</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10127</v>
       </c>
-      <c r="K21">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>1265.875</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>803</v>
@@ -2434,27 +2501,30 @@
         <v>2880</v>
       </c>
       <c r="H22">
+        <v>48</v>
+      </c>
+      <c r="I22">
         <v>9549</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>60</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7639</v>
       </c>
-      <c r="K22">
-        <v>48</v>
-      </c>
-      <c r="L22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>477.4375</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>539</v>
@@ -2472,27 +2542,30 @@
         <v>79</v>
       </c>
       <c r="H23">
+        <v>36</v>
+      </c>
+      <c r="I23">
         <v>116</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2100</v>
       </c>
-      <c r="K23">
-        <v>36</v>
-      </c>
-      <c r="L23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>150</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>1034</v>
@@ -2510,27 +2583,30 @@
         <v>9600</v>
       </c>
       <c r="H24">
+        <v>96</v>
+      </c>
+      <c r="I24">
         <v>13924</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>100</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>13367</v>
       </c>
-      <c r="K24">
-        <v>96</v>
-      </c>
-      <c r="L24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1336.7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1586</v>
@@ -2548,27 +2624,30 @@
         <v>8160</v>
       </c>
       <c r="H25">
+        <v>102</v>
+      </c>
+      <c r="I25">
         <v>10684</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>80</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>13623</v>
       </c>
-      <c r="K25">
-        <v>102</v>
-      </c>
-      <c r="L25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>908.2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>1617</v>
@@ -2586,27 +2665,30 @@
         <v>6640</v>
       </c>
       <c r="H26">
+        <v>83</v>
+      </c>
+      <c r="I26">
         <v>9686</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>80</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>10050</v>
       </c>
-      <c r="K26">
-        <v>83</v>
-      </c>
-      <c r="L26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>528.94736842105203</v>
+      </c>
+      <c r="M26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>1018</v>
@@ -2624,27 +2706,30 @@
         <v>2100</v>
       </c>
       <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27">
         <v>10220</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>60</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5961</v>
       </c>
-      <c r="K27">
-        <v>35</v>
-      </c>
-      <c r="L27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>205.55172413793099</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>1890</v>
@@ -2662,27 +2747,30 @@
         <v>11120</v>
       </c>
       <c r="H28">
+        <v>139</v>
+      </c>
+      <c r="I28">
         <v>9893</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>80</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>17189</v>
       </c>
-      <c r="K28">
-        <v>139</v>
-      </c>
-      <c r="L28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>1322.23076923076</v>
+      </c>
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>2027</v>
@@ -2700,27 +2788,30 @@
         <v>12240</v>
       </c>
       <c r="H29">
+        <v>153</v>
+      </c>
+      <c r="I29">
         <v>10840</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>80</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>20732</v>
       </c>
-      <c r="K29">
-        <v>153</v>
-      </c>
-      <c r="L29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>1594.76923076923</v>
+      </c>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>1331</v>
@@ -2738,27 +2829,30 @@
         <v>11610</v>
       </c>
       <c r="H30">
+        <v>129</v>
+      </c>
+      <c r="I30">
         <v>12348</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>90</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>17698</v>
       </c>
-      <c r="K30">
-        <v>129</v>
-      </c>
-      <c r="L30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>1769.8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>1138</v>
@@ -2776,27 +2870,30 @@
         <v>5490</v>
       </c>
       <c r="H31">
+        <v>61</v>
+      </c>
+      <c r="I31">
         <v>12612</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>90</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>8548</v>
       </c>
-      <c r="K31">
-        <v>61</v>
-      </c>
-      <c r="L31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>474.888888888888</v>
+      </c>
+      <c r="M31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>1356</v>
@@ -2814,27 +2911,30 @@
         <v>3280</v>
       </c>
       <c r="H32">
+        <v>56</v>
+      </c>
+      <c r="I32">
         <v>10111</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>58</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>9762</v>
       </c>
-      <c r="K32">
-        <v>56</v>
-      </c>
-      <c r="L32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>406.75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>2289</v>
@@ -2852,27 +2952,30 @@
         <v>9300</v>
       </c>
       <c r="H33">
+        <v>93</v>
+      </c>
+      <c r="I33">
         <v>13798</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>100</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>12832</v>
       </c>
-      <c r="K33">
-        <v>93</v>
-      </c>
-      <c r="L33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>493.53846153846098</v>
+      </c>
+      <c r="M33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>1225</v>
@@ -2890,27 +2993,30 @@
         <v>3120</v>
       </c>
       <c r="H34">
+        <v>52</v>
+      </c>
+      <c r="I34">
         <v>9195</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>60</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7969</v>
       </c>
-      <c r="K34">
-        <v>52</v>
-      </c>
-      <c r="L34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>332.041666666666</v>
+      </c>
+      <c r="M34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>493</v>
@@ -2928,27 +3034,30 @@
         <v>181</v>
       </c>
       <c r="H35">
+        <v>56</v>
+      </c>
+      <c r="I35">
         <v>276</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>3</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5170</v>
       </c>
-      <c r="K35">
-        <v>56</v>
-      </c>
-      <c r="L35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>646.25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <v>959</v>
@@ -2966,27 +3075,30 @@
         <v>2820</v>
       </c>
       <c r="H36">
+        <v>47</v>
+      </c>
+      <c r="I36">
         <v>9762</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>60</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7647</v>
       </c>
-      <c r="K36">
-        <v>47</v>
-      </c>
-      <c r="L36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>382.35</v>
+      </c>
+      <c r="M36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>341</v>
@@ -3004,27 +3116,30 @@
         <v>40</v>
       </c>
       <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
         <v>279</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>3</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>1023</v>
       </c>
-      <c r="K37">
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="L37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <v>1948</v>
@@ -3042,27 +3157,30 @@
         <v>11492</v>
       </c>
       <c r="H38">
+        <v>118</v>
+      </c>
+      <c r="I38">
         <v>12591</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>97</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>15318</v>
       </c>
-      <c r="K38">
-        <v>118</v>
-      </c>
-      <c r="L38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>957.375</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>535</v>
@@ -3080,27 +3198,30 @@
         <v>3780</v>
       </c>
       <c r="H39">
+        <v>63</v>
+      </c>
+      <c r="I39">
         <v>8182</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>60</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>8592</v>
       </c>
-      <c r="K39">
-        <v>63</v>
-      </c>
-      <c r="L39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1074</v>
+      </c>
+      <c r="M39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40">
         <v>776</v>
@@ -3118,27 +3239,30 @@
         <v>3840</v>
       </c>
       <c r="H40">
+        <v>64</v>
+      </c>
+      <c r="I40">
         <v>7988</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>60</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>8521</v>
       </c>
-      <c r="K40">
-        <v>64</v>
-      </c>
-      <c r="L40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>774.63636363636294</v>
+      </c>
+      <c r="M40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>1589</v>
@@ -3156,27 +3280,30 @@
         <v>8480</v>
       </c>
       <c r="H41">
+        <v>106</v>
+      </c>
+      <c r="I41">
         <v>10069</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>80</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>13341</v>
       </c>
-      <c r="K41">
-        <v>106</v>
-      </c>
-      <c r="L41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>952.92857142857099</v>
+      </c>
+      <c r="M41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>2453</v>
@@ -3194,27 +3321,30 @@
         <v>10795</v>
       </c>
       <c r="H42">
+        <v>109</v>
+      </c>
+      <c r="I42">
         <v>12637</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>99</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>13913</v>
       </c>
-      <c r="K42">
-        <v>109</v>
-      </c>
-      <c r="L42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>579.70833333333303</v>
+      </c>
+      <c r="M42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>1077</v>
@@ -3232,27 +3362,30 @@
         <v>2160</v>
       </c>
       <c r="H43">
+        <v>36</v>
+      </c>
+      <c r="I43">
         <v>9319</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>60</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5591</v>
       </c>
-      <c r="K43">
-        <v>36</v>
-      </c>
-      <c r="L43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>192.79310344827499</v>
+      </c>
+      <c r="M43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>3389</v>
@@ -3270,27 +3403,30 @@
         <v>10400</v>
       </c>
       <c r="H44">
+        <v>104</v>
+      </c>
+      <c r="I44">
         <v>11767</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>100</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>12237</v>
       </c>
-      <c r="K44">
-        <v>104</v>
-      </c>
-      <c r="L44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>370.81818181818102</v>
+      </c>
+      <c r="M44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>783</v>
@@ -3308,27 +3444,30 @@
         <v>2760</v>
       </c>
       <c r="H45">
+        <v>46</v>
+      </c>
+      <c r="I45">
         <v>9491</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>60</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7277</v>
       </c>
-      <c r="K45">
-        <v>46</v>
-      </c>
-      <c r="L45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>428.05882352941097</v>
+      </c>
+      <c r="M45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>597</v>
@@ -3346,27 +3485,30 @@
         <v>790</v>
       </c>
       <c r="H46">
+        <v>39</v>
+      </c>
+      <c r="I46">
         <v>3527</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>20</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>6878</v>
       </c>
-      <c r="K46">
-        <v>39</v>
-      </c>
-      <c r="L46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>458.53333333333302</v>
+      </c>
+      <c r="M46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>2554</v>
@@ -3384,27 +3526,30 @@
         <v>6080</v>
       </c>
       <c r="H47">
+        <v>76</v>
+      </c>
+      <c r="I47">
         <v>10971</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>80</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>10423</v>
       </c>
-      <c r="K47">
-        <v>76</v>
-      </c>
-      <c r="L47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>315.84848484848402</v>
+      </c>
+      <c r="M47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>1113</v>
@@ -3422,27 +3567,30 @@
         <v>4080</v>
       </c>
       <c r="H48">
+        <v>68</v>
+      </c>
+      <c r="I48">
         <v>8276</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>60</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>9380</v>
       </c>
-      <c r="K48">
-        <v>68</v>
-      </c>
-      <c r="L48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>586.25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>1946</v>
@@ -3460,27 +3608,30 @@
         <v>12870</v>
       </c>
       <c r="H49">
+        <v>143</v>
+      </c>
+      <c r="I49">
         <v>11627</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>90</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>18475</v>
       </c>
-      <c r="K49">
-        <v>143</v>
-      </c>
-      <c r="L49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>1421.15384615384</v>
+      </c>
+      <c r="M49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>3974</v>
@@ -3498,27 +3649,30 @@
         <v>14030</v>
       </c>
       <c r="H50">
+        <v>156</v>
+      </c>
+      <c r="I50">
         <v>12684</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>89</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>22233</v>
       </c>
-      <c r="K50">
-        <v>156</v>
-      </c>
-      <c r="L50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>889.32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>609</v>
@@ -3536,27 +3690,30 @@
         <v>3240</v>
       </c>
       <c r="H51">
+        <v>54</v>
+      </c>
+      <c r="I51">
         <v>8812</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>60</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>7931</v>
       </c>
-      <c r="K51">
-        <v>54</v>
-      </c>
-      <c r="L51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>793.1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52">
         <v>700</v>
@@ -3574,27 +3731,30 @@
         <v>2461</v>
       </c>
       <c r="H52">
+        <v>42</v>
+      </c>
+      <c r="I52">
         <v>6964</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>58</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>5042</v>
       </c>
-      <c r="K52">
-        <v>42</v>
-      </c>
-      <c r="L52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>360.142857142857</v>
+      </c>
+      <c r="M52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53">
         <v>767</v>
@@ -3612,27 +3772,30 @@
         <v>3180</v>
       </c>
       <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53">
         <v>8326</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>60</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>7355</v>
       </c>
-      <c r="K53">
-        <v>53</v>
-      </c>
-      <c r="L53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>525.35714285714198</v>
+      </c>
+      <c r="M53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54">
         <v>1398</v>
@@ -3650,27 +3813,30 @@
         <v>1344</v>
       </c>
       <c r="H54">
+        <v>94</v>
+      </c>
+      <c r="I54">
         <v>2142</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>14</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>14382</v>
       </c>
-      <c r="K54">
-        <v>94</v>
-      </c>
-      <c r="L54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>1027.2857142857099</v>
+      </c>
+      <c r="M54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55">
         <v>2112</v>
@@ -3688,27 +3854,30 @@
         <v>4800</v>
       </c>
       <c r="H55">
+        <v>60</v>
+      </c>
+      <c r="I55">
         <v>11367</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>80</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>8525</v>
       </c>
-      <c r="K55">
-        <v>60</v>
-      </c>
-      <c r="L55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>250.73529411764699</v>
+      </c>
+      <c r="M55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>913</v>
@@ -3726,27 +3895,30 @@
         <v>1800</v>
       </c>
       <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
         <v>11277</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>60</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>5638</v>
       </c>
-      <c r="K56">
-        <v>30</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="L56">
+        <v>187.933333333333</v>
+      </c>
+      <c r="M56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>1869</v>
@@ -3764,27 +3936,30 @@
         <v>4320</v>
       </c>
       <c r="H57">
+        <v>72</v>
+      </c>
+      <c r="I57">
         <v>8072</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>60</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>9687</v>
       </c>
-      <c r="K57">
-        <v>72</v>
-      </c>
-      <c r="L57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>387.48</v>
+      </c>
+      <c r="M57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <v>1507</v>
@@ -3802,27 +3977,30 @@
         <v>6540</v>
       </c>
       <c r="H58">
+        <v>109</v>
+      </c>
+      <c r="I58">
         <v>8431</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>60</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>15318</v>
       </c>
-      <c r="K58">
-        <v>109</v>
-      </c>
-      <c r="L58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>1178.3076923076901</v>
+      </c>
+      <c r="M58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>682</v>
@@ -3840,27 +4018,30 @@
         <v>2340</v>
       </c>
       <c r="H59">
+        <v>39</v>
+      </c>
+      <c r="I59">
         <v>8081</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>60</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>5253</v>
       </c>
-      <c r="K59">
-        <v>39</v>
-      </c>
-      <c r="L59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>309</v>
+      </c>
+      <c r="M59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60">
         <v>2326</v>
@@ -3878,27 +4059,30 @@
         <v>7200</v>
       </c>
       <c r="H60">
+        <v>90</v>
+      </c>
+      <c r="I60">
         <v>10728</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>80</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>12069</v>
       </c>
-      <c r="K60">
-        <v>90</v>
-      </c>
-      <c r="L60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>482.76</v>
+      </c>
+      <c r="M60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>840</v>
@@ -3916,27 +4100,30 @@
         <v>2520</v>
       </c>
       <c r="H61">
+        <v>42</v>
+      </c>
+      <c r="I61">
         <v>8551</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>60</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>5985</v>
       </c>
-      <c r="K61">
-        <v>42</v>
-      </c>
-      <c r="L61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>299.25</v>
+      </c>
+      <c r="M61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>1681</v>
@@ -3954,27 +4141,30 @@
         <v>13040</v>
       </c>
       <c r="H62">
+        <v>163</v>
+      </c>
+      <c r="I62">
         <v>10246</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>80</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>20876</v>
       </c>
-      <c r="K62">
-        <v>163</v>
-      </c>
-      <c r="L62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>2087.6</v>
+      </c>
+      <c r="M62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>967</v>
@@ -3992,27 +4182,30 @@
         <v>2700</v>
       </c>
       <c r="H63">
+        <v>45</v>
+      </c>
+      <c r="I63">
         <v>8610</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>60</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>6458</v>
       </c>
-      <c r="K63">
-        <v>45</v>
-      </c>
-      <c r="L63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>307.52380952380901</v>
+      </c>
+      <c r="M63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>1039</v>
@@ -4030,27 +4223,30 @@
         <v>3900</v>
       </c>
       <c r="H64">
+        <v>65</v>
+      </c>
+      <c r="I64">
         <v>8026</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>60</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>8694</v>
       </c>
-      <c r="K64">
-        <v>65</v>
-      </c>
-      <c r="L64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>543.375</v>
+      </c>
+      <c r="M64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65">
         <v>443</v>
@@ -4068,27 +4264,30 @@
         <v>40</v>
       </c>
       <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
         <v>179</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>2</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1347</v>
       </c>
-      <c r="K65">
-        <v>15</v>
-      </c>
-      <c r="L65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>46.448275862068897</v>
+      </c>
+      <c r="M65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>1251</v>
@@ -4106,27 +4305,30 @@
         <v>4080</v>
       </c>
       <c r="H66">
+        <v>68</v>
+      </c>
+      <c r="I66">
         <v>8095</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>60</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>9175</v>
       </c>
-      <c r="K66">
-        <v>68</v>
-      </c>
-      <c r="L66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>509.722222222222</v>
+      </c>
+      <c r="M66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67">
         <v>1964</v>
@@ -4144,27 +4346,30 @@
         <v>11360</v>
       </c>
       <c r="H67">
+        <v>142</v>
+      </c>
+      <c r="I67">
         <v>10864</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>80</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>19284</v>
       </c>
-      <c r="K67">
-        <v>142</v>
-      </c>
-      <c r="L67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>1483.38461538461</v>
+      </c>
+      <c r="M67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68">
         <v>719</v>
@@ -4182,27 +4387,30 @@
         <v>760</v>
       </c>
       <c r="H68">
+        <v>38</v>
+      </c>
+      <c r="I68">
         <v>3100</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>20</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>5890</v>
       </c>
-      <c r="K68">
-        <v>38</v>
-      </c>
-      <c r="L68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>327.222222222222</v>
+      </c>
+      <c r="M68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69">
         <v>1031</v>
@@ -4220,27 +4428,30 @@
         <v>3360</v>
       </c>
       <c r="H69">
+        <v>56</v>
+      </c>
+      <c r="I69">
         <v>8640</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>60</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>8064</v>
       </c>
-      <c r="K69">
-        <v>56</v>
-      </c>
-      <c r="L69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>448</v>
+      </c>
+      <c r="M69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70">
         <v>734</v>
@@ -4258,27 +4469,30 @@
         <v>160</v>
       </c>
       <c r="H70">
+        <v>57</v>
+      </c>
+      <c r="I70">
         <v>252</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>2</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>7192</v>
       </c>
-      <c r="K70">
-        <v>57</v>
-      </c>
-      <c r="L70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>599.33333333333303</v>
+      </c>
+      <c r="M70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71">
         <v>818</v>
@@ -4296,27 +4510,30 @@
         <v>1075</v>
       </c>
       <c r="H71">
+        <v>56</v>
+      </c>
+      <c r="I71">
         <v>2878</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>19</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>8485</v>
       </c>
-      <c r="K71">
-        <v>56</v>
-      </c>
-      <c r="L71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>606.07142857142799</v>
+      </c>
+      <c r="M71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C72">
         <v>589</v>
@@ -4334,27 +4551,30 @@
         <v>4080</v>
       </c>
       <c r="H72">
+        <v>68</v>
+      </c>
+      <c r="I72">
         <v>9075</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>60</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>10285</v>
       </c>
-      <c r="K72">
-        <v>68</v>
-      </c>
-      <c r="L72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>1285.625</v>
+      </c>
+      <c r="M72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73">
         <v>783</v>
@@ -4372,27 +4592,30 @@
         <v>3060</v>
       </c>
       <c r="H73">
+        <v>51</v>
+      </c>
+      <c r="I73">
         <v>9191</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>60</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>7812</v>
       </c>
-      <c r="K73">
-        <v>51</v>
-      </c>
-      <c r="L73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="M73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74">
         <v>2780</v>
@@ -4410,27 +4633,30 @@
         <v>13059</v>
       </c>
       <c r="H74">
+        <v>136</v>
+      </c>
+      <c r="I74">
         <v>10791</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>96</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>15288</v>
       </c>
-      <c r="K74">
-        <v>136</v>
-      </c>
-      <c r="L74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>728</v>
+      </c>
+      <c r="M74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>1919</v>
@@ -4448,27 +4674,30 @@
         <v>3640</v>
       </c>
       <c r="H75">
+        <v>62</v>
+      </c>
+      <c r="I75">
         <v>8318</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>58</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>8892</v>
       </c>
-      <c r="K75">
-        <v>62</v>
-      </c>
-      <c r="L75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="M75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76">
         <v>2009</v>
@@ -4486,27 +4715,30 @@
         <v>12966</v>
       </c>
       <c r="H76">
+        <v>130</v>
+      </c>
+      <c r="I76">
         <v>14055</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>99</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>18456</v>
       </c>
-      <c r="K76">
-        <v>130</v>
-      </c>
-      <c r="L76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>922.8</v>
+      </c>
+      <c r="M76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77">
         <v>1705</v>
@@ -4524,27 +4756,30 @@
         <v>6960</v>
       </c>
       <c r="H77">
+        <v>87</v>
+      </c>
+      <c r="I77">
         <v>10726</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>80</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>11665</v>
       </c>
-      <c r="K77">
-        <v>87</v>
-      </c>
-      <c r="L77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>613.94736842105203</v>
+      </c>
+      <c r="M77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78">
         <v>1638</v>
@@ -4562,27 +4797,30 @@
         <v>7280</v>
       </c>
       <c r="H78">
+        <v>91</v>
+      </c>
+      <c r="I78">
         <v>9793</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>80</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>11139</v>
       </c>
-      <c r="K78">
-        <v>91</v>
-      </c>
-      <c r="L78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>618.83333333333303</v>
+      </c>
+      <c r="M78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C79">
         <v>467</v>
@@ -4600,27 +4838,30 @@
         <v>4030</v>
       </c>
       <c r="H79">
+        <v>63</v>
+      </c>
+      <c r="I79">
         <v>10454</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>63</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>10454</v>
       </c>
-      <c r="K79">
-        <v>63</v>
-      </c>
-      <c r="L79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>1493.42857142857</v>
+      </c>
+      <c r="M79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80">
         <v>766</v>
@@ -4638,27 +4879,30 @@
         <v>2040</v>
       </c>
       <c r="H80">
+        <v>34</v>
+      </c>
+      <c r="I80">
         <v>9756</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>60</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>5528</v>
       </c>
-      <c r="K80">
-        <v>34</v>
-      </c>
-      <c r="L80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>251.272727272727</v>
+      </c>
+      <c r="M80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81">
         <v>1642</v>
@@ -4676,27 +4920,30 @@
         <v>8960</v>
       </c>
       <c r="H81">
+        <v>112</v>
+      </c>
+      <c r="I81">
         <v>10579</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>80</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>14811</v>
       </c>
-      <c r="K81">
-        <v>112</v>
-      </c>
-      <c r="L81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>1057.92857142857</v>
+      </c>
+      <c r="M81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82">
         <v>2280</v>
@@ -4714,27 +4961,30 @@
         <v>12400</v>
       </c>
       <c r="H82">
+        <v>155</v>
+      </c>
+      <c r="I82">
         <v>10602</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>80</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>20541</v>
       </c>
-      <c r="K82">
-        <v>155</v>
-      </c>
-      <c r="L82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>1467.2142857142801</v>
+      </c>
+      <c r="M82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C83">
         <v>1315</v>
@@ -4752,27 +5002,30 @@
         <v>11970</v>
       </c>
       <c r="H83">
+        <v>133</v>
+      </c>
+      <c r="I83">
         <v>11909</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>90</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>17599</v>
       </c>
-      <c r="K83">
-        <v>133</v>
-      </c>
-      <c r="L83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>1955.44444444444</v>
+      </c>
+      <c r="M83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C84">
         <v>700</v>
@@ -4790,27 +5043,30 @@
         <v>85</v>
       </c>
       <c r="H84">
+        <v>27</v>
+      </c>
+      <c r="I84">
         <v>203</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>3</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>1831</v>
       </c>
-      <c r="K84">
-        <v>27</v>
-      </c>
-      <c r="L84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>65.392857142857096</v>
+      </c>
+      <c r="M84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C85">
         <v>1076</v>
@@ -4828,27 +5084,30 @@
         <v>5310</v>
       </c>
       <c r="H85">
+        <v>59</v>
+      </c>
+      <c r="I85">
         <v>12576</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>90</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>8244</v>
       </c>
-      <c r="K85">
-        <v>59</v>
-      </c>
-      <c r="L85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>484.941176470588</v>
+      </c>
+      <c r="M85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C86">
         <v>1060</v>
@@ -4866,27 +5125,30 @@
         <v>1640</v>
       </c>
       <c r="H86">
+        <v>80</v>
+      </c>
+      <c r="I86">
         <v>2647</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>20</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>10589</v>
       </c>
-      <c r="K86">
-        <v>80</v>
-      </c>
-      <c r="L86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>814.53846153846098</v>
+      </c>
+      <c r="M86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87">
         <v>643</v>
@@ -4904,27 +5166,30 @@
         <v>610</v>
       </c>
       <c r="H87">
+        <v>31</v>
+      </c>
+      <c r="I87">
         <v>3269</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>19</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>5334</v>
       </c>
-      <c r="K87">
-        <v>31</v>
-      </c>
-      <c r="L87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>266.7</v>
+      </c>
+      <c r="M87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C88">
         <v>2128</v>
@@ -4942,27 +5207,30 @@
         <v>9300</v>
       </c>
       <c r="H88">
+        <v>93</v>
+      </c>
+      <c r="I88">
         <v>13653</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>100</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>12697</v>
       </c>
-      <c r="K88">
-        <v>93</v>
-      </c>
-      <c r="L88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>552.04347826086905</v>
+      </c>
+      <c r="M88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C89">
         <v>239</v>
@@ -4980,27 +5248,30 @@
         <v>41</v>
       </c>
       <c r="H89">
+        <v>12</v>
+      </c>
+      <c r="I89">
         <v>260</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>3</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>1043</v>
       </c>
-      <c r="K89">
-        <v>12</v>
-      </c>
-      <c r="L89" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>54.894736842105203</v>
+      </c>
+      <c r="M89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C90">
         <v>1184</v>
@@ -5018,27 +5289,30 @@
         <v>5100</v>
       </c>
       <c r="H90">
+        <v>85</v>
+      </c>
+      <c r="I90">
         <v>8094</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>60</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>11466</v>
       </c>
-      <c r="K90">
-        <v>85</v>
-      </c>
-      <c r="L90" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>882</v>
+      </c>
+      <c r="M90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C91">
         <v>1062</v>
@@ -5056,27 +5330,30 @@
         <v>3300</v>
       </c>
       <c r="H91">
+        <v>55</v>
+      </c>
+      <c r="I91">
         <v>9278</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>60</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>8505</v>
       </c>
-      <c r="K91">
-        <v>55</v>
-      </c>
-      <c r="L91" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>447.63157894736798</v>
+      </c>
+      <c r="M91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C92">
         <v>2147</v>
@@ -5094,27 +5371,30 @@
         <v>7840</v>
       </c>
       <c r="H92">
+        <v>98</v>
+      </c>
+      <c r="I92">
         <v>10580</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>80</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>12960</v>
       </c>
-      <c r="K92">
-        <v>98</v>
-      </c>
-      <c r="L92" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>617.142857142857</v>
+      </c>
+      <c r="M92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C93">
         <v>972</v>
@@ -5132,27 +5412,30 @@
         <v>3900</v>
       </c>
       <c r="H93">
+        <v>65</v>
+      </c>
+      <c r="I93">
         <v>11020</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>60</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>11939</v>
       </c>
-      <c r="K93">
-        <v>65</v>
-      </c>
-      <c r="L93" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>795.93333333333305</v>
+      </c>
+      <c r="M93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <v>446</v>
@@ -5170,27 +5453,30 @@
         <v>3180</v>
       </c>
       <c r="H94">
+        <v>53</v>
+      </c>
+      <c r="I94">
         <v>8407</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>60</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>7426</v>
       </c>
-      <c r="K94">
-        <v>53</v>
-      </c>
-      <c r="L94" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>928.25</v>
+      </c>
+      <c r="M94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C95">
         <v>653</v>
@@ -5208,27 +5494,30 @@
         <v>2460</v>
       </c>
       <c r="H95">
+        <v>41</v>
+      </c>
+      <c r="I95">
         <v>11248</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>60</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>7686</v>
       </c>
-      <c r="K95">
-        <v>41</v>
-      </c>
-      <c r="L95" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>512.4</v>
+      </c>
+      <c r="M95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>2447</v>
@@ -5246,27 +5535,30 @@
         <v>10795</v>
       </c>
       <c r="H96">
+        <v>109</v>
+      </c>
+      <c r="I96">
         <v>12759</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>99</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>14048</v>
       </c>
-      <c r="K96">
-        <v>109</v>
-      </c>
-      <c r="L96" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>585.33333333333303</v>
+      </c>
+      <c r="M96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C97">
         <v>377</v>
@@ -5284,27 +5576,30 @@
         <v>40</v>
       </c>
       <c r="H97">
+        <v>11</v>
+      </c>
+      <c r="I97">
         <v>297</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>3</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>1091</v>
       </c>
-      <c r="K97">
-        <v>11</v>
-      </c>
-      <c r="L97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>32.088235294117602</v>
+      </c>
+      <c r="M97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C98">
         <v>1065</v>
@@ -5322,27 +5617,30 @@
         <v>2100</v>
       </c>
       <c r="H98">
+        <v>35</v>
+      </c>
+      <c r="I98">
         <v>8599</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>60</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>5016</v>
       </c>
-      <c r="K98">
-        <v>35</v>
-      </c>
-      <c r="L98" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>167.2</v>
+      </c>
+      <c r="M98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <v>1759</v>
@@ -5360,27 +5658,30 @@
         <v>9996</v>
       </c>
       <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
         <v>12910</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>99</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>13040</v>
       </c>
-      <c r="K99">
-        <v>100</v>
-      </c>
-      <c r="L99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>724.444444444444</v>
+      </c>
+      <c r="M99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>699</v>
@@ -5398,27 +5699,30 @@
         <v>2940</v>
       </c>
       <c r="H100">
+        <v>49</v>
+      </c>
+      <c r="I100">
         <v>9248</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>60</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>7552</v>
       </c>
-      <c r="K100">
-        <v>49</v>
-      </c>
-      <c r="L100" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>580.923076923076</v>
+      </c>
+      <c r="M100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101">
         <v>2077</v>
@@ -5436,27 +5740,30 @@
         <v>6160</v>
       </c>
       <c r="H101">
+        <v>77</v>
+      </c>
+      <c r="I101">
         <v>10805</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>80</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>10400</v>
       </c>
-      <c r="K101">
-        <v>77</v>
-      </c>
-      <c r="L101" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>400</v>
+      </c>
+      <c r="M101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C102">
         <v>1413</v>
@@ -5474,27 +5781,30 @@
         <v>8720</v>
       </c>
       <c r="H102">
+        <v>109</v>
+      </c>
+      <c r="I102">
         <v>10216</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>80</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>13920</v>
       </c>
-      <c r="K102">
-        <v>109</v>
-      </c>
-      <c r="L102" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>1160</v>
+      </c>
+      <c r="M102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103">
         <v>1058</v>
@@ -5512,27 +5822,30 @@
         <v>4020</v>
       </c>
       <c r="H103">
+        <v>67</v>
+      </c>
+      <c r="I103">
         <v>8364</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>60</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>9340</v>
       </c>
-      <c r="K103">
-        <v>67</v>
-      </c>
-      <c r="L103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>622.66666666666595</v>
+      </c>
+      <c r="M103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C104">
         <v>553</v>
@@ -5550,27 +5863,30 @@
         <v>840</v>
       </c>
       <c r="H104">
+        <v>42</v>
+      </c>
+      <c r="I104">
         <v>2394</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>20</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>5028</v>
       </c>
-      <c r="K104">
-        <v>42</v>
-      </c>
-      <c r="L104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>386.76923076922998</v>
+      </c>
+      <c r="M104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105">
         <v>2084</v>
@@ -5588,27 +5904,30 @@
         <v>11700</v>
       </c>
       <c r="H105">
+        <v>130</v>
+      </c>
+      <c r="I105">
         <v>11684</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>90</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>16877</v>
       </c>
-      <c r="K105">
-        <v>130</v>
-      </c>
-      <c r="L105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>1054.8125</v>
+      </c>
+      <c r="M105" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C106">
         <v>513</v>
@@ -5626,27 +5945,30 @@
         <v>49</v>
       </c>
       <c r="H106">
+        <v>13</v>
+      </c>
+      <c r="I106">
         <v>317</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>3</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>1376</v>
       </c>
-      <c r="K106">
-        <v>13</v>
-      </c>
-      <c r="L106" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>35.282051282051199</v>
+      </c>
+      <c r="M106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107">
         <v>2499</v>
@@ -5664,27 +5986,30 @@
         <v>13590</v>
       </c>
       <c r="H107">
+        <v>151</v>
+      </c>
+      <c r="I107">
         <v>12892</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>90</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>21630</v>
       </c>
-      <c r="K107">
-        <v>151</v>
-      </c>
-      <c r="L107" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>1351.875</v>
+      </c>
+      <c r="M107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>807</v>
@@ -5702,27 +6027,30 @@
         <v>3000</v>
       </c>
       <c r="H108">
+        <v>50</v>
+      </c>
+      <c r="I108">
         <v>9167</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>60</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>7639</v>
       </c>
-      <c r="K108">
-        <v>50</v>
-      </c>
-      <c r="L108" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>477.4375</v>
+      </c>
+      <c r="M108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109">
         <v>1507</v>
@@ -5740,27 +6068,30 @@
         <v>4480</v>
       </c>
       <c r="H109">
+        <v>56</v>
+      </c>
+      <c r="I109">
         <v>11472</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>80</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>8030</v>
       </c>
-      <c r="K109">
-        <v>56</v>
-      </c>
-      <c r="L109" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>308.84615384615302</v>
+      </c>
+      <c r="M109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110">
         <v>1844</v>
@@ -5778,27 +6109,30 @@
         <v>10420</v>
       </c>
       <c r="H110">
+        <v>105</v>
+      </c>
+      <c r="I110">
         <v>13326</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>99</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>14133</v>
       </c>
-      <c r="K110">
-        <v>105</v>
-      </c>
-      <c r="L110" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>743.84210526315701</v>
+      </c>
+      <c r="M110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111">
         <v>606</v>
@@ -5816,27 +6150,30 @@
         <v>3600</v>
       </c>
       <c r="H111">
+        <v>36</v>
+      </c>
+      <c r="I111">
         <v>14799</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>100</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>5327</v>
       </c>
-      <c r="K111">
-        <v>36</v>
-      </c>
-      <c r="L111" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>280.36842105263099</v>
+      </c>
+      <c r="M111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112">
         <v>2180</v>
@@ -5854,27 +6191,30 @@
         <v>11610</v>
       </c>
       <c r="H112">
+        <v>129</v>
+      </c>
+      <c r="I112">
         <v>10633</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>90</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>15241</v>
       </c>
-      <c r="K112">
-        <v>129</v>
-      </c>
-      <c r="L112" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>896.52941176470495</v>
+      </c>
+      <c r="M112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113">
         <v>1686</v>
@@ -5892,27 +6232,30 @@
         <v>9630</v>
       </c>
       <c r="H113">
+        <v>107</v>
+      </c>
+      <c r="I113">
         <v>12231</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>90</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>14542</v>
       </c>
-      <c r="K113">
-        <v>107</v>
-      </c>
-      <c r="L113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>908.875</v>
+      </c>
+      <c r="M113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C114">
         <v>1334</v>
@@ -5930,27 +6273,30 @@
         <v>4860</v>
       </c>
       <c r="H114">
+        <v>81</v>
+      </c>
+      <c r="I114">
         <v>7338</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>60</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>9907</v>
       </c>
-      <c r="K114">
-        <v>81</v>
-      </c>
-      <c r="L114" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>619.1875</v>
+      </c>
+      <c r="M114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C115">
         <v>3575</v>
@@ -5968,27 +6314,30 @@
         <v>12435</v>
       </c>
       <c r="H115">
+        <v>126</v>
+      </c>
+      <c r="I115">
         <v>12251</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>98</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>15752</v>
       </c>
-      <c r="K115">
-        <v>126</v>
-      </c>
-      <c r="L115" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>525.06666666666604</v>
+      </c>
+      <c r="M115" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C116">
         <v>2115</v>
@@ -6006,27 +6355,30 @@
         <v>13410</v>
       </c>
       <c r="H116">
+        <v>149</v>
+      </c>
+      <c r="I116">
         <v>10442</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>90</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>17288</v>
       </c>
-      <c r="K116">
-        <v>149</v>
-      </c>
-      <c r="L116" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>1234.8571428571399</v>
+      </c>
+      <c r="M116" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C117">
         <v>2141</v>
@@ -6044,27 +6396,30 @@
         <v>12600</v>
       </c>
       <c r="H117">
+        <v>140</v>
+      </c>
+      <c r="I117">
         <v>11753</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>90</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>18283</v>
       </c>
-      <c r="K117">
-        <v>140</v>
-      </c>
-      <c r="L117" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>1142.6875</v>
+      </c>
+      <c r="M117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C118">
         <v>2169</v>
@@ -6082,27 +6437,30 @@
         <v>11600</v>
       </c>
       <c r="H118">
+        <v>145</v>
+      </c>
+      <c r="I118">
         <v>10967</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>80</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>19878</v>
       </c>
-      <c r="K118">
-        <v>145</v>
-      </c>
-      <c r="L118" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>1419.8571428571399</v>
+      </c>
+      <c r="M118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C119">
         <v>1024</v>
@@ -6120,27 +6478,30 @@
         <v>2340</v>
       </c>
       <c r="H119">
+        <v>39</v>
+      </c>
+      <c r="I119">
         <v>8347</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>60</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>5426</v>
       </c>
-      <c r="K119">
-        <v>39</v>
-      </c>
-      <c r="L119" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>208.692307692307</v>
+      </c>
+      <c r="M119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C120">
         <v>1492</v>
@@ -6158,27 +6519,30 @@
         <v>6560</v>
       </c>
       <c r="H120">
+        <v>82</v>
+      </c>
+      <c r="I120">
         <v>10510</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>80</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>10773</v>
       </c>
-      <c r="K120">
-        <v>82</v>
-      </c>
-      <c r="L120" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>598.5</v>
+      </c>
+      <c r="M120" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C121">
         <v>790</v>
@@ -6196,27 +6560,30 @@
         <v>1500</v>
       </c>
       <c r="H121">
+        <v>25</v>
+      </c>
+      <c r="I121">
         <v>8203</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>60</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>3418</v>
       </c>
-      <c r="K121">
-        <v>25</v>
-      </c>
-      <c r="L121" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>110.258064516129</v>
+      </c>
+      <c r="M121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C122">
         <v>1572</v>
@@ -6234,27 +6601,30 @@
         <v>14400</v>
       </c>
       <c r="H122">
+        <v>144</v>
+      </c>
+      <c r="I122">
         <v>11089</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>100</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>15968</v>
       </c>
-      <c r="K122">
-        <v>144</v>
-      </c>
-      <c r="L122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>1451.6363636363601</v>
+      </c>
+      <c r="M122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C123">
         <v>6735</v>
@@ -6272,27 +6642,30 @@
         <v>36384</v>
       </c>
       <c r="H123">
+        <v>330</v>
+      </c>
+      <c r="I123">
         <v>12398</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>110</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>37196</v>
       </c>
-      <c r="K123">
-        <v>330</v>
-      </c>
-      <c r="L123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>1771.23809523809</v>
+      </c>
+      <c r="M123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C124">
         <v>880</v>
@@ -6310,27 +6683,30 @@
         <v>7200</v>
       </c>
       <c r="H124">
+        <v>80</v>
+      </c>
+      <c r="I124">
         <v>12158</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>90</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>10807</v>
       </c>
-      <c r="K124">
-        <v>80</v>
-      </c>
-      <c r="L124" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>982.45454545454504</v>
+      </c>
+      <c r="M124" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C125">
         <v>1762</v>
@@ -6348,27 +6724,30 @@
         <v>10620</v>
       </c>
       <c r="H125">
+        <v>118</v>
+      </c>
+      <c r="I125">
         <v>11196</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>90</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>14679</v>
       </c>
-      <c r="K125">
-        <v>118</v>
-      </c>
-      <c r="L125" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>1129.15384615384</v>
+      </c>
+      <c r="M125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C126">
         <v>1241</v>
@@ -6386,27 +6765,30 @@
         <v>2880</v>
       </c>
       <c r="H126">
+        <v>48</v>
+      </c>
+      <c r="I126">
         <v>8584</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>60</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>6867</v>
       </c>
-      <c r="K126">
-        <v>48</v>
-      </c>
-      <c r="L126" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>274.68</v>
+      </c>
+      <c r="M126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C127">
         <v>1129</v>
@@ -6424,27 +6806,30 @@
         <v>7920</v>
       </c>
       <c r="H127">
+        <v>88</v>
+      </c>
+      <c r="I127">
         <v>11193</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>90</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>10944</v>
       </c>
-      <c r="K127">
-        <v>88</v>
-      </c>
-      <c r="L127" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>912</v>
+      </c>
+      <c r="M127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C128">
         <v>1086</v>
@@ -6462,27 +6847,30 @@
         <v>8809</v>
       </c>
       <c r="H128">
+        <v>89</v>
+      </c>
+      <c r="I128">
         <v>11899</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>98</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>10806</v>
       </c>
-      <c r="K128">
-        <v>89</v>
-      </c>
-      <c r="L128" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>720.4</v>
+      </c>
+      <c r="M128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C129">
         <v>583</v>
@@ -6500,27 +6888,30 @@
         <v>3900</v>
       </c>
       <c r="H129">
+        <v>65</v>
+      </c>
+      <c r="I129">
         <v>9262</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>60</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>10033</v>
       </c>
-      <c r="K129">
-        <v>65</v>
-      </c>
-      <c r="L129" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>1254.125</v>
+      </c>
+      <c r="M129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C130">
         <v>1483</v>
@@ -6538,19 +6929,22 @@
         <v>8800</v>
       </c>
       <c r="H130">
+        <v>110</v>
+      </c>
+      <c r="I130">
         <v>10745</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>80</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>14774</v>
       </c>
-      <c r="K130">
-        <v>110</v>
-      </c>
-      <c r="L130" t="s">
-        <v>237</v>
+      <c r="L130">
+        <v>1136.4615384615299</v>
+      </c>
+      <c r="M130" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/distance_quest_data.xlsx
+++ b/distance_quest_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\wzqdist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF106AD6-102D-49D6-B449-2D17C1BC0975}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2805EA84-2616-4B4A-A2CB-020AE075CDC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="11550"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>xp/lvl</t>
   </si>
   <si>
-    <t>xp/lvl/adist</t>
+    <t>txp/alvl/adist</t>
   </si>
   <si>
     <t>qdata</t>
@@ -1301,7 +1301,7 @@
     <tableColumn id="9" name="axp"/>
     <tableColumn id="10" name="alvl"/>
     <tableColumn id="11" name="xp/lvl"/>
-    <tableColumn id="12" name="xp/lvl/adist"/>
+    <tableColumn id="12" name="txp/alvl/adist"/>
     <tableColumn id="13" name="qdata"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1608,13 +1608,13 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/distance_quest_data.xlsx
+++ b/distance_quest_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\wzqdist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2805EA84-2616-4B4A-A2CB-020AE075CDC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00409209-941F-42AC-9610-D20C84E9566A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="11550"/>
   </bookViews>
@@ -1693,7 +1693,7 @@
         <v>1515</v>
       </c>
       <c r="L2">
-        <v>65.869565217391298</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -1734,7 +1734,7 @@
         <v>5386</v>
       </c>
       <c r="L3">
-        <v>207.15384615384599</v>
+        <v>207</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -1775,7 +1775,7 @@
         <v>10766</v>
       </c>
       <c r="L4">
-        <v>633.29411764705799</v>
+        <v>633</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -1816,7 +1816,7 @@
         <v>6106</v>
       </c>
       <c r="L5">
-        <v>381.625</v>
+        <v>381</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
@@ -1857,7 +1857,7 @@
         <v>5284</v>
       </c>
       <c r="L6">
-        <v>330.25</v>
+        <v>330</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
@@ -1898,7 +1898,7 @@
         <v>12168</v>
       </c>
       <c r="L7">
-        <v>579.42857142857099</v>
+        <v>579</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
@@ -1939,7 +1939,7 @@
         <v>6127</v>
       </c>
       <c r="L8">
-        <v>291.76190476190402</v>
+        <v>291</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
@@ -1980,7 +1980,7 @@
         <v>9151</v>
       </c>
       <c r="L9">
-        <v>381.291666666666</v>
+        <v>381</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -2021,7 +2021,7 @@
         <v>17730</v>
       </c>
       <c r="L10">
-        <v>1363.8461538461499</v>
+        <v>1363</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -2062,7 +2062,7 @@
         <v>6647</v>
       </c>
       <c r="L11">
-        <v>302.136363636363</v>
+        <v>302</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -2103,7 +2103,7 @@
         <v>8151</v>
       </c>
       <c r="L12">
-        <v>452.83333333333297</v>
+        <v>452</v>
       </c>
       <c r="M12" t="s">
         <v>33</v>
@@ -2185,7 +2185,7 @@
         <v>8458</v>
       </c>
       <c r="L14">
-        <v>352.416666666666</v>
+        <v>352</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
@@ -2267,7 +2267,7 @@
         <v>6431</v>
       </c>
       <c r="L16">
-        <v>584.63636363636294</v>
+        <v>584</v>
       </c>
       <c r="M16" t="s">
         <v>41</v>
@@ -2308,7 +2308,7 @@
         <v>6835</v>
       </c>
       <c r="L17">
-        <v>325.47619047619003</v>
+        <v>325</v>
       </c>
       <c r="M17" t="s">
         <v>43</v>
@@ -2349,7 +2349,7 @@
         <v>9773</v>
       </c>
       <c r="L18">
-        <v>698.07142857142799</v>
+        <v>698</v>
       </c>
       <c r="M18" t="s">
         <v>45</v>
@@ -2390,7 +2390,7 @@
         <v>1008</v>
       </c>
       <c r="L19">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
         <v>47</v>
@@ -2431,7 +2431,7 @@
         <v>4836</v>
       </c>
       <c r="L20">
-        <v>284.47058823529397</v>
+        <v>284</v>
       </c>
       <c r="M20" t="s">
         <v>49</v>
@@ -2472,7 +2472,7 @@
         <v>10127</v>
       </c>
       <c r="L21">
-        <v>1265.875</v>
+        <v>1265</v>
       </c>
       <c r="M21" t="s">
         <v>51</v>
@@ -2513,7 +2513,7 @@
         <v>7639</v>
       </c>
       <c r="L22">
-        <v>477.4375</v>
+        <v>477</v>
       </c>
       <c r="M22" t="s">
         <v>53</v>
@@ -2595,7 +2595,7 @@
         <v>13367</v>
       </c>
       <c r="L24">
-        <v>1336.7</v>
+        <v>1336</v>
       </c>
       <c r="M24" t="s">
         <v>57</v>
@@ -2636,7 +2636,7 @@
         <v>13623</v>
       </c>
       <c r="L25">
-        <v>908.2</v>
+        <v>908</v>
       </c>
       <c r="M25" t="s">
         <v>59</v>
@@ -2677,7 +2677,7 @@
         <v>10050</v>
       </c>
       <c r="L26">
-        <v>528.94736842105203</v>
+        <v>528</v>
       </c>
       <c r="M26" t="s">
         <v>61</v>
@@ -2718,7 +2718,7 @@
         <v>5961</v>
       </c>
       <c r="L27">
-        <v>205.55172413793099</v>
+        <v>205</v>
       </c>
       <c r="M27" t="s">
         <v>63</v>
@@ -2759,7 +2759,7 @@
         <v>17189</v>
       </c>
       <c r="L28">
-        <v>1322.23076923076</v>
+        <v>1322</v>
       </c>
       <c r="M28" t="s">
         <v>65</v>
@@ -2800,7 +2800,7 @@
         <v>20732</v>
       </c>
       <c r="L29">
-        <v>1594.76923076923</v>
+        <v>1594</v>
       </c>
       <c r="M29" t="s">
         <v>67</v>
@@ -2841,7 +2841,7 @@
         <v>17698</v>
       </c>
       <c r="L30">
-        <v>1769.8</v>
+        <v>1769</v>
       </c>
       <c r="M30" t="s">
         <v>69</v>
@@ -2882,7 +2882,7 @@
         <v>8548</v>
       </c>
       <c r="L31">
-        <v>474.888888888888</v>
+        <v>474</v>
       </c>
       <c r="M31" t="s">
         <v>71</v>
@@ -2923,7 +2923,7 @@
         <v>9762</v>
       </c>
       <c r="L32">
-        <v>406.75</v>
+        <v>406</v>
       </c>
       <c r="M32" t="s">
         <v>73</v>
@@ -2964,7 +2964,7 @@
         <v>12832</v>
       </c>
       <c r="L33">
-        <v>493.53846153846098</v>
+        <v>493</v>
       </c>
       <c r="M33" t="s">
         <v>75</v>
@@ -3005,7 +3005,7 @@
         <v>7969</v>
       </c>
       <c r="L34">
-        <v>332.041666666666</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s">
         <v>77</v>
@@ -3046,7 +3046,7 @@
         <v>5170</v>
       </c>
       <c r="L35">
-        <v>646.25</v>
+        <v>646</v>
       </c>
       <c r="M35" t="s">
         <v>79</v>
@@ -3087,7 +3087,7 @@
         <v>7647</v>
       </c>
       <c r="L36">
-        <v>382.35</v>
+        <v>382</v>
       </c>
       <c r="M36" t="s">
         <v>81</v>
@@ -3169,7 +3169,7 @@
         <v>15318</v>
       </c>
       <c r="L38">
-        <v>957.375</v>
+        <v>957</v>
       </c>
       <c r="M38" t="s">
         <v>85</v>
@@ -3251,7 +3251,7 @@
         <v>8521</v>
       </c>
       <c r="L40">
-        <v>774.63636363636294</v>
+        <v>774</v>
       </c>
       <c r="M40" t="s">
         <v>89</v>
@@ -3292,7 +3292,7 @@
         <v>13341</v>
       </c>
       <c r="L41">
-        <v>952.92857142857099</v>
+        <v>952</v>
       </c>
       <c r="M41" t="s">
         <v>91</v>
@@ -3333,7 +3333,7 @@
         <v>13913</v>
       </c>
       <c r="L42">
-        <v>579.70833333333303</v>
+        <v>579</v>
       </c>
       <c r="M42" t="s">
         <v>93</v>
@@ -3374,7 +3374,7 @@
         <v>5591</v>
       </c>
       <c r="L43">
-        <v>192.79310344827499</v>
+        <v>192</v>
       </c>
       <c r="M43" t="s">
         <v>95</v>
@@ -3415,7 +3415,7 @@
         <v>12237</v>
       </c>
       <c r="L44">
-        <v>370.81818181818102</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s">
         <v>97</v>
@@ -3456,7 +3456,7 @@
         <v>7277</v>
       </c>
       <c r="L45">
-        <v>428.05882352941097</v>
+        <v>428</v>
       </c>
       <c r="M45" t="s">
         <v>99</v>
@@ -3497,7 +3497,7 @@
         <v>6878</v>
       </c>
       <c r="L46">
-        <v>458.53333333333302</v>
+        <v>458</v>
       </c>
       <c r="M46" t="s">
         <v>101</v>
@@ -3538,7 +3538,7 @@
         <v>10423</v>
       </c>
       <c r="L47">
-        <v>315.84848484848402</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s">
         <v>103</v>
@@ -3579,7 +3579,7 @@
         <v>9380</v>
       </c>
       <c r="L48">
-        <v>586.25</v>
+        <v>586</v>
       </c>
       <c r="M48" t="s">
         <v>105</v>
@@ -3620,7 +3620,7 @@
         <v>18475</v>
       </c>
       <c r="L49">
-        <v>1421.15384615384</v>
+        <v>1421</v>
       </c>
       <c r="M49" t="s">
         <v>107</v>
@@ -3661,7 +3661,7 @@
         <v>22233</v>
       </c>
       <c r="L50">
-        <v>889.32</v>
+        <v>889</v>
       </c>
       <c r="M50" t="s">
         <v>109</v>
@@ -3702,7 +3702,7 @@
         <v>7931</v>
       </c>
       <c r="L51">
-        <v>793.1</v>
+        <v>793</v>
       </c>
       <c r="M51" t="s">
         <v>111</v>
@@ -3743,7 +3743,7 @@
         <v>5042</v>
       </c>
       <c r="L52">
-        <v>360.142857142857</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s">
         <v>113</v>
@@ -3784,7 +3784,7 @@
         <v>7355</v>
       </c>
       <c r="L53">
-        <v>525.35714285714198</v>
+        <v>525</v>
       </c>
       <c r="M53" t="s">
         <v>115</v>
@@ -3825,7 +3825,7 @@
         <v>14382</v>
       </c>
       <c r="L54">
-        <v>1027.2857142857099</v>
+        <v>1027</v>
       </c>
       <c r="M54" t="s">
         <v>117</v>
@@ -3866,7 +3866,7 @@
         <v>8525</v>
       </c>
       <c r="L55">
-        <v>250.73529411764699</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s">
         <v>119</v>
@@ -3907,7 +3907,7 @@
         <v>5638</v>
       </c>
       <c r="L56">
-        <v>187.933333333333</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s">
         <v>121</v>
@@ -3948,7 +3948,7 @@
         <v>9687</v>
       </c>
       <c r="L57">
-        <v>387.48</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s">
         <v>122</v>
@@ -3989,7 +3989,7 @@
         <v>15318</v>
       </c>
       <c r="L58">
-        <v>1178.3076923076901</v>
+        <v>1178</v>
       </c>
       <c r="M58" t="s">
         <v>124</v>
@@ -4071,7 +4071,7 @@
         <v>12069</v>
       </c>
       <c r="L60">
-        <v>482.76</v>
+        <v>482</v>
       </c>
       <c r="M60" t="s">
         <v>127</v>
@@ -4112,7 +4112,7 @@
         <v>5985</v>
       </c>
       <c r="L61">
-        <v>299.25</v>
+        <v>299</v>
       </c>
       <c r="M61" t="s">
         <v>128</v>
@@ -4153,7 +4153,7 @@
         <v>20876</v>
       </c>
       <c r="L62">
-        <v>2087.6</v>
+        <v>2087</v>
       </c>
       <c r="M62" t="s">
         <v>129</v>
@@ -4194,7 +4194,7 @@
         <v>6458</v>
       </c>
       <c r="L63">
-        <v>307.52380952380901</v>
+        <v>307</v>
       </c>
       <c r="M63" t="s">
         <v>130</v>
@@ -4235,7 +4235,7 @@
         <v>8694</v>
       </c>
       <c r="L64">
-        <v>543.375</v>
+        <v>543</v>
       </c>
       <c r="M64" t="s">
         <v>131</v>
@@ -4276,7 +4276,7 @@
         <v>1347</v>
       </c>
       <c r="L65">
-        <v>46.448275862068897</v>
+        <v>46</v>
       </c>
       <c r="M65" t="s">
         <v>133</v>
@@ -4317,7 +4317,7 @@
         <v>9175</v>
       </c>
       <c r="L66">
-        <v>509.722222222222</v>
+        <v>509</v>
       </c>
       <c r="M66" t="s">
         <v>134</v>
@@ -4358,7 +4358,7 @@
         <v>19284</v>
       </c>
       <c r="L67">
-        <v>1483.38461538461</v>
+        <v>1483</v>
       </c>
       <c r="M67" t="s">
         <v>135</v>
@@ -4399,7 +4399,7 @@
         <v>5890</v>
       </c>
       <c r="L68">
-        <v>327.222222222222</v>
+        <v>327</v>
       </c>
       <c r="M68" t="s">
         <v>137</v>
@@ -4481,7 +4481,7 @@
         <v>7192</v>
       </c>
       <c r="L70">
-        <v>599.33333333333303</v>
+        <v>599</v>
       </c>
       <c r="M70" t="s">
         <v>140</v>
@@ -4522,7 +4522,7 @@
         <v>8485</v>
       </c>
       <c r="L71">
-        <v>606.07142857142799</v>
+        <v>606</v>
       </c>
       <c r="M71" t="s">
         <v>142</v>
@@ -4563,7 +4563,7 @@
         <v>10285</v>
       </c>
       <c r="L72">
-        <v>1285.625</v>
+        <v>1285</v>
       </c>
       <c r="M72" t="s">
         <v>143</v>
@@ -4604,7 +4604,7 @@
         <v>7812</v>
       </c>
       <c r="L73">
-        <v>520.79999999999995</v>
+        <v>520</v>
       </c>
       <c r="M73" t="s">
         <v>144</v>
@@ -4686,7 +4686,7 @@
         <v>8892</v>
       </c>
       <c r="L75">
-        <v>296.39999999999998</v>
+        <v>296</v>
       </c>
       <c r="M75" t="s">
         <v>148</v>
@@ -4727,7 +4727,7 @@
         <v>18456</v>
       </c>
       <c r="L76">
-        <v>922.8</v>
+        <v>922</v>
       </c>
       <c r="M76" t="s">
         <v>149</v>
@@ -4768,7 +4768,7 @@
         <v>11665</v>
       </c>
       <c r="L77">
-        <v>613.94736842105203</v>
+        <v>613</v>
       </c>
       <c r="M77" t="s">
         <v>150</v>
@@ -4809,7 +4809,7 @@
         <v>11139</v>
       </c>
       <c r="L78">
-        <v>618.83333333333303</v>
+        <v>618</v>
       </c>
       <c r="M78" t="s">
         <v>152</v>
@@ -4850,7 +4850,7 @@
         <v>10454</v>
       </c>
       <c r="L79">
-        <v>1493.42857142857</v>
+        <v>1493</v>
       </c>
       <c r="M79" t="s">
         <v>154</v>
@@ -4891,7 +4891,7 @@
         <v>5528</v>
       </c>
       <c r="L80">
-        <v>251.272727272727</v>
+        <v>251</v>
       </c>
       <c r="M80" t="s">
         <v>155</v>
@@ -4932,7 +4932,7 @@
         <v>14811</v>
       </c>
       <c r="L81">
-        <v>1057.92857142857</v>
+        <v>1057</v>
       </c>
       <c r="M81" t="s">
         <v>156</v>
@@ -4973,7 +4973,7 @@
         <v>20541</v>
       </c>
       <c r="L82">
-        <v>1467.2142857142801</v>
+        <v>1467</v>
       </c>
       <c r="M82" t="s">
         <v>157</v>
@@ -5014,7 +5014,7 @@
         <v>17599</v>
       </c>
       <c r="L83">
-        <v>1955.44444444444</v>
+        <v>1955</v>
       </c>
       <c r="M83" t="s">
         <v>158</v>
@@ -5055,7 +5055,7 @@
         <v>1831</v>
       </c>
       <c r="L84">
-        <v>65.392857142857096</v>
+        <v>65</v>
       </c>
       <c r="M84" t="s">
         <v>160</v>
@@ -5096,7 +5096,7 @@
         <v>8244</v>
       </c>
       <c r="L85">
-        <v>484.941176470588</v>
+        <v>484</v>
       </c>
       <c r="M85" t="s">
         <v>161</v>
@@ -5137,7 +5137,7 @@
         <v>10589</v>
       </c>
       <c r="L86">
-        <v>814.53846153846098</v>
+        <v>814</v>
       </c>
       <c r="M86" t="s">
         <v>163</v>
@@ -5178,7 +5178,7 @@
         <v>5334</v>
       </c>
       <c r="L87">
-        <v>266.7</v>
+        <v>266</v>
       </c>
       <c r="M87" t="s">
         <v>165</v>
@@ -5219,7 +5219,7 @@
         <v>12697</v>
       </c>
       <c r="L88">
-        <v>552.04347826086905</v>
+        <v>552</v>
       </c>
       <c r="M88" t="s">
         <v>166</v>
@@ -5260,7 +5260,7 @@
         <v>1043</v>
       </c>
       <c r="L89">
-        <v>54.894736842105203</v>
+        <v>54</v>
       </c>
       <c r="M89" t="s">
         <v>168</v>
@@ -5342,7 +5342,7 @@
         <v>8505</v>
       </c>
       <c r="L91">
-        <v>447.63157894736798</v>
+        <v>447</v>
       </c>
       <c r="M91" t="s">
         <v>171</v>
@@ -5383,7 +5383,7 @@
         <v>12960</v>
       </c>
       <c r="L92">
-        <v>617.142857142857</v>
+        <v>617</v>
       </c>
       <c r="M92" t="s">
         <v>172</v>
@@ -5424,7 +5424,7 @@
         <v>11939</v>
       </c>
       <c r="L93">
-        <v>795.93333333333305</v>
+        <v>795</v>
       </c>
       <c r="M93" t="s">
         <v>174</v>
@@ -5465,7 +5465,7 @@
         <v>7426</v>
       </c>
       <c r="L94">
-        <v>928.25</v>
+        <v>928</v>
       </c>
       <c r="M94" t="s">
         <v>175</v>
@@ -5506,7 +5506,7 @@
         <v>7686</v>
       </c>
       <c r="L95">
-        <v>512.4</v>
+        <v>512</v>
       </c>
       <c r="M95" t="s">
         <v>176</v>
@@ -5547,7 +5547,7 @@
         <v>14048</v>
       </c>
       <c r="L96">
-        <v>585.33333333333303</v>
+        <v>585</v>
       </c>
       <c r="M96" t="s">
         <v>177</v>
@@ -5588,7 +5588,7 @@
         <v>1091</v>
       </c>
       <c r="L97">
-        <v>32.088235294117602</v>
+        <v>32</v>
       </c>
       <c r="M97" t="s">
         <v>179</v>
@@ -5629,7 +5629,7 @@
         <v>5016</v>
       </c>
       <c r="L98">
-        <v>167.2</v>
+        <v>167</v>
       </c>
       <c r="M98" t="s">
         <v>180</v>
@@ -5670,7 +5670,7 @@
         <v>13040</v>
       </c>
       <c r="L99">
-        <v>724.444444444444</v>
+        <v>724</v>
       </c>
       <c r="M99" t="s">
         <v>181</v>
@@ -5711,7 +5711,7 @@
         <v>7552</v>
       </c>
       <c r="L100">
-        <v>580.923076923076</v>
+        <v>580</v>
       </c>
       <c r="M100" t="s">
         <v>182</v>
@@ -5834,7 +5834,7 @@
         <v>9340</v>
       </c>
       <c r="L103">
-        <v>622.66666666666595</v>
+        <v>622</v>
       </c>
       <c r="M103" t="s">
         <v>187</v>
@@ -5875,7 +5875,7 @@
         <v>5028</v>
       </c>
       <c r="L104">
-        <v>386.76923076922998</v>
+        <v>386</v>
       </c>
       <c r="M104" t="s">
         <v>189</v>
@@ -5916,7 +5916,7 @@
         <v>16877</v>
       </c>
       <c r="L105">
-        <v>1054.8125</v>
+        <v>1054</v>
       </c>
       <c r="M105" t="s">
         <v>190</v>
@@ -5957,7 +5957,7 @@
         <v>1376</v>
       </c>
       <c r="L106">
-        <v>35.282051282051199</v>
+        <v>35</v>
       </c>
       <c r="M106" t="s">
         <v>192</v>
@@ -5998,7 +5998,7 @@
         <v>21630</v>
       </c>
       <c r="L107">
-        <v>1351.875</v>
+        <v>1351</v>
       </c>
       <c r="M107" t="s">
         <v>193</v>
@@ -6039,7 +6039,7 @@
         <v>7639</v>
       </c>
       <c r="L108">
-        <v>477.4375</v>
+        <v>477</v>
       </c>
       <c r="M108" t="s">
         <v>194</v>
@@ -6080,7 +6080,7 @@
         <v>8030</v>
       </c>
       <c r="L109">
-        <v>308.84615384615302</v>
+        <v>308</v>
       </c>
       <c r="M109" t="s">
         <v>195</v>
@@ -6121,7 +6121,7 @@
         <v>14133</v>
       </c>
       <c r="L110">
-        <v>743.84210526315701</v>
+        <v>743</v>
       </c>
       <c r="M110" t="s">
         <v>198</v>
@@ -6162,7 +6162,7 @@
         <v>5327</v>
       </c>
       <c r="L111">
-        <v>280.36842105263099</v>
+        <v>280</v>
       </c>
       <c r="M111" t="s">
         <v>200</v>
@@ -6203,7 +6203,7 @@
         <v>15241</v>
       </c>
       <c r="L112">
-        <v>896.52941176470495</v>
+        <v>896</v>
       </c>
       <c r="M112" t="s">
         <v>202</v>
@@ -6244,7 +6244,7 @@
         <v>14542</v>
       </c>
       <c r="L113">
-        <v>908.875</v>
+        <v>908</v>
       </c>
       <c r="M113" t="s">
         <v>204</v>
@@ -6285,7 +6285,7 @@
         <v>9907</v>
       </c>
       <c r="L114">
-        <v>619.1875</v>
+        <v>619</v>
       </c>
       <c r="M114" t="s">
         <v>206</v>
@@ -6326,7 +6326,7 @@
         <v>15752</v>
       </c>
       <c r="L115">
-        <v>525.06666666666604</v>
+        <v>525</v>
       </c>
       <c r="M115" t="s">
         <v>208</v>
@@ -6367,7 +6367,7 @@
         <v>17288</v>
       </c>
       <c r="L116">
-        <v>1234.8571428571399</v>
+        <v>1234</v>
       </c>
       <c r="M116" t="s">
         <v>210</v>
@@ -6408,7 +6408,7 @@
         <v>18283</v>
       </c>
       <c r="L117">
-        <v>1142.6875</v>
+        <v>1142</v>
       </c>
       <c r="M117" t="s">
         <v>212</v>
@@ -6449,7 +6449,7 @@
         <v>19878</v>
       </c>
       <c r="L118">
-        <v>1419.8571428571399</v>
+        <v>1419</v>
       </c>
       <c r="M118" t="s">
         <v>214</v>
@@ -6490,7 +6490,7 @@
         <v>5426</v>
       </c>
       <c r="L119">
-        <v>208.692307692307</v>
+        <v>208</v>
       </c>
       <c r="M119" t="s">
         <v>216</v>
@@ -6531,7 +6531,7 @@
         <v>10773</v>
       </c>
       <c r="L120">
-        <v>598.5</v>
+        <v>598</v>
       </c>
       <c r="M120" t="s">
         <v>218</v>
@@ -6572,7 +6572,7 @@
         <v>3418</v>
       </c>
       <c r="L121">
-        <v>110.258064516129</v>
+        <v>110</v>
       </c>
       <c r="M121" t="s">
         <v>220</v>
@@ -6613,7 +6613,7 @@
         <v>15968</v>
       </c>
       <c r="L122">
-        <v>1451.6363636363601</v>
+        <v>1451</v>
       </c>
       <c r="M122" t="s">
         <v>222</v>
@@ -6654,7 +6654,7 @@
         <v>37196</v>
       </c>
       <c r="L123">
-        <v>1771.23809523809</v>
+        <v>1771</v>
       </c>
       <c r="M123" t="s">
         <v>224</v>
@@ -6695,7 +6695,7 @@
         <v>10807</v>
       </c>
       <c r="L124">
-        <v>982.45454545454504</v>
+        <v>982</v>
       </c>
       <c r="M124" t="s">
         <v>226</v>
@@ -6736,7 +6736,7 @@
         <v>14679</v>
       </c>
       <c r="L125">
-        <v>1129.15384615384</v>
+        <v>1129</v>
       </c>
       <c r="M125" t="s">
         <v>228</v>
@@ -6777,7 +6777,7 @@
         <v>6867</v>
       </c>
       <c r="L126">
-        <v>274.68</v>
+        <v>274</v>
       </c>
       <c r="M126" t="s">
         <v>230</v>
@@ -6859,7 +6859,7 @@
         <v>10806</v>
       </c>
       <c r="L128">
-        <v>720.4</v>
+        <v>720</v>
       </c>
       <c r="M128" t="s">
         <v>234</v>
@@ -6900,7 +6900,7 @@
         <v>10033</v>
       </c>
       <c r="L129">
-        <v>1254.125</v>
+        <v>1254</v>
       </c>
       <c r="M129" t="s">
         <v>236</v>
@@ -6941,7 +6941,7 @@
         <v>14774</v>
       </c>
       <c r="L130">
-        <v>1136.4615384615299</v>
+        <v>1136</v>
       </c>
       <c r="M130" t="s">
         <v>238</v>
